--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gpi1-Amfr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gpi1-Amfr.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.6342335679431</v>
+        <v>38.51647066666666</v>
       </c>
       <c r="H2">
-        <v>33.6342335679431</v>
+        <v>115.549412</v>
       </c>
       <c r="I2">
-        <v>0.1602494303954846</v>
+        <v>0.1698567744219909</v>
       </c>
       <c r="J2">
-        <v>0.1602494303954846</v>
+        <v>0.1818830664871652</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.8566107259948</v>
+        <v>15.916237</v>
       </c>
       <c r="N2">
-        <v>14.8566107259948</v>
+        <v>47.748711</v>
       </c>
       <c r="O2">
-        <v>0.1760273186630584</v>
+        <v>0.1807523655213274</v>
       </c>
       <c r="P2">
-        <v>0.1760273186630584</v>
+        <v>0.1917923603630477</v>
       </c>
       <c r="Q2">
-        <v>499.6907151861178</v>
+        <v>613.0372755342146</v>
       </c>
       <c r="R2">
-        <v>499.6907151861178</v>
+        <v>5517.335479807932</v>
       </c>
       <c r="S2">
-        <v>0.02820827754979956</v>
+        <v>0.03070201377659735</v>
       </c>
       <c r="T2">
-        <v>0.02820827754979956</v>
+        <v>0.03488378263164255</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.6342335679431</v>
+        <v>38.51647066666666</v>
       </c>
       <c r="H3">
-        <v>33.6342335679431</v>
+        <v>115.549412</v>
       </c>
       <c r="I3">
-        <v>0.1602494303954846</v>
+        <v>0.1698567744219909</v>
       </c>
       <c r="J3">
-        <v>0.1602494303954846</v>
+        <v>0.1818830664871652</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>17.1857309314296</v>
+        <v>18.30356</v>
       </c>
       <c r="N3">
-        <v>17.1857309314296</v>
+        <v>54.91068</v>
       </c>
       <c r="O3">
-        <v>0.2036237060335155</v>
+        <v>0.2078639421781384</v>
       </c>
       <c r="P3">
-        <v>0.2036237060335155</v>
+        <v>0.2205598581779516</v>
       </c>
       <c r="Q3">
-        <v>578.0288881835274</v>
+        <v>704.9885318355733</v>
       </c>
       <c r="R3">
-        <v>578.0288881835274</v>
+        <v>6344.896786520159</v>
       </c>
       <c r="S3">
-        <v>0.03263058290688844</v>
+        <v>0.03530709873701781</v>
       </c>
       <c r="T3">
-        <v>0.03263058290688844</v>
+        <v>0.04011610334938009</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.6342335679431</v>
+        <v>38.51647066666666</v>
       </c>
       <c r="H4">
-        <v>33.6342335679431</v>
+        <v>115.549412</v>
       </c>
       <c r="I4">
-        <v>0.1602494303954846</v>
+        <v>0.1698567744219909</v>
       </c>
       <c r="J4">
-        <v>0.1602494303954846</v>
+        <v>0.1818830664871652</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.9534053297063</v>
+        <v>17.01902666666667</v>
       </c>
       <c r="N4">
-        <v>15.9534053297063</v>
+        <v>51.05708</v>
       </c>
       <c r="O4">
-        <v>0.1890225984597914</v>
+        <v>0.193276170043871</v>
       </c>
       <c r="P4">
-        <v>0.1890225984597914</v>
+        <v>0.2050810939471215</v>
       </c>
       <c r="Q4">
-        <v>536.58056106341</v>
+        <v>655.5128413818843</v>
       </c>
       <c r="R4">
-        <v>536.58056106341</v>
+        <v>5899.615572436959</v>
       </c>
       <c r="S4">
-        <v>0.03029076373505597</v>
+        <v>0.03282926681628814</v>
       </c>
       <c r="T4">
-        <v>0.03029076373505597</v>
+        <v>0.03730077824564487</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>33.6342335679431</v>
+        <v>38.51647066666666</v>
       </c>
       <c r="H5">
-        <v>33.6342335679431</v>
+        <v>115.549412</v>
       </c>
       <c r="I5">
-        <v>0.1602494303954846</v>
+        <v>0.1698567744219909</v>
       </c>
       <c r="J5">
-        <v>0.1602494303954846</v>
+        <v>0.1818830664871652</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.5929757605238</v>
+        <v>21.61065166666667</v>
       </c>
       <c r="N5">
-        <v>21.5929757605238</v>
+        <v>64.83195500000001</v>
       </c>
       <c r="O5">
-        <v>0.2558425804635806</v>
+        <v>0.2454208497402632</v>
       </c>
       <c r="P5">
-        <v>0.2558425804635806</v>
+        <v>0.2604106669267134</v>
       </c>
       <c r="Q5">
-        <v>726.2631901563913</v>
+        <v>832.3660310067178</v>
       </c>
       <c r="R5">
-        <v>726.2631901563913</v>
+        <v>7491.29427906046</v>
       </c>
       <c r="S5">
-        <v>0.04099862779019972</v>
+        <v>0.0416863939127852</v>
       </c>
       <c r="T5">
-        <v>0.04099862779019972</v>
+        <v>0.04736429064659844</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.6342335679431</v>
+        <v>38.51647066666666</v>
       </c>
       <c r="H6">
-        <v>33.6342335679431</v>
+        <v>115.549412</v>
       </c>
       <c r="I6">
-        <v>0.1602494303954846</v>
+        <v>0.1698567744219909</v>
       </c>
       <c r="J6">
-        <v>0.1602494303954846</v>
+        <v>0.1818830664871652</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.810737738547</v>
+        <v>15.2060085</v>
       </c>
       <c r="N6">
-        <v>14.810737738547</v>
+        <v>30.412017</v>
       </c>
       <c r="O6">
-        <v>0.175483796380054</v>
+        <v>0.1726866725164001</v>
       </c>
       <c r="P6">
-        <v>0.175483796380054</v>
+        <v>0.1221560205851658</v>
       </c>
       <c r="Q6">
-        <v>498.1478124118391</v>
+        <v>585.6817803473339</v>
       </c>
       <c r="R6">
-        <v>498.1478124118391</v>
+        <v>3514.090682084004</v>
       </c>
       <c r="S6">
-        <v>0.02812117841354085</v>
+        <v>0.02933200117930239</v>
       </c>
       <c r="T6">
-        <v>0.02812117841354085</v>
+        <v>0.02221811161389923</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>41.444340954325</v>
+        <v>44.796276</v>
       </c>
       <c r="H7">
-        <v>41.444340954325</v>
+        <v>134.388828</v>
       </c>
       <c r="I7">
-        <v>0.197460483754766</v>
+        <v>0.1975505755272189</v>
       </c>
       <c r="J7">
-        <v>0.197460483754766</v>
+        <v>0.2115376592159223</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.8566107259948</v>
+        <v>15.916237</v>
       </c>
       <c r="N7">
-        <v>14.8566107259948</v>
+        <v>47.748711</v>
       </c>
       <c r="O7">
-        <v>0.1760273186630584</v>
+        <v>0.1807523655213274</v>
       </c>
       <c r="P7">
-        <v>0.1760273186630584</v>
+        <v>0.1917923603630477</v>
       </c>
       <c r="Q7">
-        <v>615.7224403538104</v>
+        <v>712.988145533412</v>
       </c>
       <c r="R7">
-        <v>615.7224403538104</v>
+        <v>6416.893309800707</v>
       </c>
       <c r="S7">
-        <v>0.03475843949726187</v>
+        <v>0.03570773383664446</v>
       </c>
       <c r="T7">
-        <v>0.03475843949726187</v>
+        <v>0.04057130696669576</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>41.444340954325</v>
+        <v>44.796276</v>
       </c>
       <c r="H8">
-        <v>41.444340954325</v>
+        <v>134.388828</v>
       </c>
       <c r="I8">
-        <v>0.197460483754766</v>
+        <v>0.1975505755272189</v>
       </c>
       <c r="J8">
-        <v>0.197460483754766</v>
+        <v>0.2115376592159223</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.1857309314296</v>
+        <v>18.30356</v>
       </c>
       <c r="N8">
-        <v>17.1857309314296</v>
+        <v>54.91068</v>
       </c>
       <c r="O8">
-        <v>0.2036237060335155</v>
+        <v>0.2078639421781384</v>
       </c>
       <c r="P8">
-        <v>0.2036237060335155</v>
+        <v>0.2205598581779516</v>
       </c>
       <c r="Q8">
-        <v>712.2512922714577</v>
+        <v>819.93132554256</v>
       </c>
       <c r="R8">
-        <v>712.2512922714577</v>
+        <v>7379.381929883039</v>
       </c>
       <c r="S8">
-        <v>0.04020763549731623</v>
+        <v>0.04106364140864779</v>
       </c>
       <c r="T8">
-        <v>0.04020763549731623</v>
+        <v>0.04665671611595968</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>41.444340954325</v>
+        <v>44.796276</v>
       </c>
       <c r="H9">
-        <v>41.444340954325</v>
+        <v>134.388828</v>
       </c>
       <c r="I9">
-        <v>0.197460483754766</v>
+        <v>0.1975505755272189</v>
       </c>
       <c r="J9">
-        <v>0.197460483754766</v>
+        <v>0.2115376592159223</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.9534053297063</v>
+        <v>17.01902666666667</v>
       </c>
       <c r="N9">
-        <v>15.9534053297063</v>
+        <v>51.05708</v>
       </c>
       <c r="O9">
-        <v>0.1890225984597914</v>
+        <v>0.193276170043871</v>
       </c>
       <c r="P9">
-        <v>0.1890225984597914</v>
+        <v>0.2050810939471215</v>
       </c>
       <c r="Q9">
-        <v>661.1783698668935</v>
+        <v>762.38901581136</v>
       </c>
       <c r="R9">
-        <v>661.1783698668935</v>
+        <v>6861.50114230224</v>
       </c>
       <c r="S9">
-        <v>0.0373244937324533</v>
+        <v>0.03818181862786334</v>
       </c>
       <c r="T9">
-        <v>0.0373244937324533</v>
+        <v>0.04338237456301475</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>41.444340954325</v>
+        <v>44.796276</v>
       </c>
       <c r="H10">
-        <v>41.444340954325</v>
+        <v>134.388828</v>
       </c>
       <c r="I10">
-        <v>0.197460483754766</v>
+        <v>0.1975505755272189</v>
       </c>
       <c r="J10">
-        <v>0.197460483754766</v>
+        <v>0.2115376592159223</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.5929757605238</v>
+        <v>21.61065166666667</v>
       </c>
       <c r="N10">
-        <v>21.5929757605238</v>
+        <v>64.83195500000001</v>
       </c>
       <c r="O10">
-        <v>0.2558425804635806</v>
+        <v>0.2454208497402632</v>
       </c>
       <c r="P10">
-        <v>0.2558425804635806</v>
+        <v>0.2604106669267134</v>
       </c>
       <c r="Q10">
-        <v>894.9066496376236</v>
+        <v>968.0767165998601</v>
       </c>
       <c r="R10">
-        <v>894.9066496376236</v>
+        <v>8712.69044939874</v>
       </c>
       <c r="S10">
-        <v>0.05051879970340627</v>
+        <v>0.04848303011256809</v>
       </c>
       <c r="T10">
-        <v>0.05051879970340627</v>
+        <v>0.05508666291653415</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>41.444340954325</v>
+        <v>44.796276</v>
       </c>
       <c r="H11">
-        <v>41.444340954325</v>
+        <v>134.388828</v>
       </c>
       <c r="I11">
-        <v>0.197460483754766</v>
+        <v>0.1975505755272189</v>
       </c>
       <c r="J11">
-        <v>0.197460483754766</v>
+        <v>0.2115376592159223</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.810737738547</v>
+        <v>15.2060085</v>
       </c>
       <c r="N11">
-        <v>14.810737738547</v>
+        <v>30.412017</v>
       </c>
       <c r="O11">
-        <v>0.175483796380054</v>
+        <v>0.1726866725164001</v>
       </c>
       <c r="P11">
-        <v>0.175483796380054</v>
+        <v>0.1221560205851658</v>
       </c>
       <c r="Q11">
-        <v>613.8212646214303</v>
+        <v>681.1725536243459</v>
       </c>
       <c r="R11">
-        <v>613.8212646214303</v>
+        <v>4087.035321746076</v>
       </c>
       <c r="S11">
-        <v>0.03465111532432832</v>
+        <v>0.03411435154149522</v>
       </c>
       <c r="T11">
-        <v>0.03465111532432832</v>
+        <v>0.025840598653718</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>41.4128026131082</v>
+        <v>43.03357566666667</v>
       </c>
       <c r="H12">
-        <v>41.4128026131082</v>
+        <v>129.100727</v>
       </c>
       <c r="I12">
-        <v>0.1973102201489252</v>
+        <v>0.1897771064707281</v>
       </c>
       <c r="J12">
-        <v>0.1973102201489252</v>
+        <v>0.2032138087598608</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.8566107259948</v>
+        <v>15.916237</v>
       </c>
       <c r="N12">
-        <v>14.8566107259948</v>
+        <v>47.748711</v>
       </c>
       <c r="O12">
-        <v>0.1760273186630584</v>
+        <v>0.1807523655213274</v>
       </c>
       <c r="P12">
-        <v>0.1760273186630584</v>
+        <v>0.1917923603630477</v>
       </c>
       <c r="Q12">
-        <v>615.2538874954088</v>
+        <v>684.9325892680997</v>
       </c>
       <c r="R12">
-        <v>615.2538874954088</v>
+        <v>6164.393303412898</v>
       </c>
       <c r="S12">
-        <v>0.03473198899763307</v>
+        <v>0.03430266091637692</v>
       </c>
       <c r="T12">
-        <v>0.03473198899763307</v>
+        <v>0.03897485604041869</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>41.4128026131082</v>
+        <v>43.03357566666667</v>
       </c>
       <c r="H13">
-        <v>41.4128026131082</v>
+        <v>129.100727</v>
       </c>
       <c r="I13">
-        <v>0.1973102201489252</v>
+        <v>0.1897771064707281</v>
       </c>
       <c r="J13">
-        <v>0.1973102201489252</v>
+        <v>0.2032138087598608</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.1857309314296</v>
+        <v>18.30356</v>
       </c>
       <c r="N13">
-        <v>17.1857309314296</v>
+        <v>54.91068</v>
       </c>
       <c r="O13">
-        <v>0.2036237060335155</v>
+        <v>0.2078639421781384</v>
       </c>
       <c r="P13">
-        <v>0.2036237060335155</v>
+        <v>0.2205598581779516</v>
       </c>
       <c r="Q13">
-        <v>711.7092828252821</v>
+        <v>787.6676342293734</v>
       </c>
       <c r="R13">
-        <v>711.7092828252821</v>
+        <v>7089.008708064361</v>
       </c>
       <c r="S13">
-        <v>0.04017703826501297</v>
+        <v>0.03944781748616585</v>
       </c>
       <c r="T13">
-        <v>0.04017703826501297</v>
+        <v>0.04482080883987628</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>41.4128026131082</v>
+        <v>43.03357566666667</v>
       </c>
       <c r="H14">
-        <v>41.4128026131082</v>
+        <v>129.100727</v>
       </c>
       <c r="I14">
-        <v>0.1973102201489252</v>
+        <v>0.1897771064707281</v>
       </c>
       <c r="J14">
-        <v>0.1973102201489252</v>
+        <v>0.2032138087598608</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.9534053297063</v>
+        <v>17.01902666666667</v>
       </c>
       <c r="N14">
-        <v>15.9534053297063</v>
+        <v>51.05708</v>
       </c>
       <c r="O14">
-        <v>0.1890225984597914</v>
+        <v>0.193276170043871</v>
       </c>
       <c r="P14">
-        <v>0.1890225984597914</v>
+        <v>0.2050810939471215</v>
       </c>
       <c r="Q14">
-        <v>660.6752259260353</v>
+        <v>732.3895718330178</v>
       </c>
       <c r="R14">
-        <v>660.6752259260353</v>
+        <v>6591.50614649716</v>
       </c>
       <c r="S14">
-        <v>0.03729609051522333</v>
+        <v>0.03667939230067026</v>
       </c>
       <c r="T14">
-        <v>0.03729609051522333</v>
+        <v>0.04167531020563341</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>41.4128026131082</v>
+        <v>43.03357566666667</v>
       </c>
       <c r="H15">
-        <v>41.4128026131082</v>
+        <v>129.100727</v>
       </c>
       <c r="I15">
-        <v>0.1973102201489252</v>
+        <v>0.1897771064707281</v>
       </c>
       <c r="J15">
-        <v>0.1973102201489252</v>
+        <v>0.2032138087598608</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.5929757605238</v>
+        <v>21.61065166666667</v>
       </c>
       <c r="N15">
-        <v>21.5929757605238</v>
+        <v>64.83195500000001</v>
       </c>
       <c r="O15">
-        <v>0.2558425804635806</v>
+        <v>0.2454208497402632</v>
       </c>
       <c r="P15">
-        <v>0.2558425804635806</v>
+        <v>0.2604106669267134</v>
       </c>
       <c r="Q15">
-        <v>894.225643000202</v>
+        <v>929.9836137034763</v>
       </c>
       <c r="R15">
-        <v>894.225643000202</v>
+        <v>8369.852523331287</v>
       </c>
       <c r="S15">
-        <v>0.0504803558747382</v>
+        <v>0.04657525873129449</v>
       </c>
       <c r="T15">
-        <v>0.0504803558747382</v>
+        <v>0.05291904346787294</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>41.4128026131082</v>
+        <v>43.03357566666667</v>
       </c>
       <c r="H16">
-        <v>41.4128026131082</v>
+        <v>129.100727</v>
       </c>
       <c r="I16">
-        <v>0.1973102201489252</v>
+        <v>0.1897771064707281</v>
       </c>
       <c r="J16">
-        <v>0.1973102201489252</v>
+        <v>0.2032138087598608</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.810737738547</v>
+        <v>15.2060085</v>
       </c>
       <c r="N16">
-        <v>14.810737738547</v>
+        <v>30.412017</v>
       </c>
       <c r="O16">
-        <v>0.175483796380054</v>
+        <v>0.1726866725164001</v>
       </c>
       <c r="P16">
-        <v>0.175483796380054</v>
+        <v>0.1221560205851658</v>
       </c>
       <c r="Q16">
-        <v>613.3541585209593</v>
+        <v>654.3689173727265</v>
       </c>
       <c r="R16">
-        <v>613.3541585209593</v>
+        <v>3926.213504236359</v>
       </c>
       <c r="S16">
-        <v>0.03462474649631762</v>
+        <v>0.03277197703622062</v>
       </c>
       <c r="T16">
-        <v>0.03462474649631762</v>
+        <v>0.0248237902060595</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>53.4386813171319</v>
+        <v>55.43169</v>
       </c>
       <c r="H17">
-        <v>53.4386813171319</v>
+        <v>166.29507</v>
       </c>
       <c r="I17">
-        <v>0.2546072062221191</v>
+        <v>0.244452513462199</v>
       </c>
       <c r="J17">
-        <v>0.2546072062221191</v>
+        <v>0.2617603737637175</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.8566107259948</v>
+        <v>15.916237</v>
       </c>
       <c r="N17">
-        <v>14.8566107259948</v>
+        <v>47.748711</v>
       </c>
       <c r="O17">
-        <v>0.1760273186630584</v>
+        <v>0.1807523655213274</v>
       </c>
       <c r="P17">
-        <v>0.1760273186630584</v>
+        <v>0.1917923603630477</v>
       </c>
       <c r="Q17">
-        <v>793.9176860391198</v>
+        <v>882.2639153505299</v>
       </c>
       <c r="R17">
-        <v>793.9176860391198</v>
+        <v>7940.375238154769</v>
       </c>
       <c r="S17">
-        <v>0.04481782382357199</v>
+        <v>0.04418537006592661</v>
       </c>
       <c r="T17">
-        <v>0.04481782382357199</v>
+        <v>0.05020363993365697</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>53.4386813171319</v>
+        <v>55.43169</v>
       </c>
       <c r="H18">
-        <v>53.4386813171319</v>
+        <v>166.29507</v>
       </c>
       <c r="I18">
-        <v>0.2546072062221191</v>
+        <v>0.244452513462199</v>
       </c>
       <c r="J18">
-        <v>0.2546072062221191</v>
+        <v>0.2617603737637175</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>17.1857309314296</v>
+        <v>18.30356</v>
       </c>
       <c r="N18">
-        <v>17.1857309314296</v>
+        <v>54.91068</v>
       </c>
       <c r="O18">
-        <v>0.2036237060335155</v>
+        <v>0.2078639421781384</v>
       </c>
       <c r="P18">
-        <v>0.2036237060335155</v>
+        <v>0.2205598581779516</v>
       </c>
       <c r="Q18">
-        <v>918.3827984466428</v>
+        <v>1014.5972638164</v>
       </c>
       <c r="R18">
-        <v>918.3827984466428</v>
+        <v>9131.375374347599</v>
       </c>
       <c r="S18">
-        <v>0.05184406291378742</v>
+        <v>0.05081286312360715</v>
       </c>
       <c r="T18">
-        <v>0.05184406291378742</v>
+        <v>0.05773383091393314</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>53.4386813171319</v>
+        <v>55.43169</v>
       </c>
       <c r="H19">
-        <v>53.4386813171319</v>
+        <v>166.29507</v>
       </c>
       <c r="I19">
-        <v>0.2546072062221191</v>
+        <v>0.244452513462199</v>
       </c>
       <c r="J19">
-        <v>0.2546072062221191</v>
+        <v>0.2617603737637175</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.9534053297063</v>
+        <v>17.01902666666667</v>
       </c>
       <c r="N19">
-        <v>15.9534053297063</v>
+        <v>51.05708</v>
       </c>
       <c r="O19">
-        <v>0.1890225984597914</v>
+        <v>0.193276170043871</v>
       </c>
       <c r="P19">
-        <v>0.1890225984597914</v>
+        <v>0.2050810939471215</v>
       </c>
       <c r="Q19">
-        <v>852.5289433372086</v>
+        <v>943.3934102883999</v>
       </c>
       <c r="R19">
-        <v>852.5289433372086</v>
+        <v>8490.540692595599</v>
       </c>
       <c r="S19">
-        <v>0.04812651570669292</v>
+        <v>0.04724684555957164</v>
       </c>
       <c r="T19">
-        <v>0.04812651570669292</v>
+        <v>0.0536821038034706</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>53.4386813171319</v>
+        <v>55.43169</v>
       </c>
       <c r="H20">
-        <v>53.4386813171319</v>
+        <v>166.29507</v>
       </c>
       <c r="I20">
-        <v>0.2546072062221191</v>
+        <v>0.244452513462199</v>
       </c>
       <c r="J20">
-        <v>0.2546072062221191</v>
+        <v>0.2617603737637175</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>21.5929757605238</v>
+        <v>21.61065166666667</v>
       </c>
       <c r="N20">
-        <v>21.5929757605238</v>
+        <v>64.83195500000001</v>
       </c>
       <c r="O20">
-        <v>0.2558425804635806</v>
+        <v>0.2454208497402632</v>
       </c>
       <c r="P20">
-        <v>0.2558425804635806</v>
+        <v>0.2604106669267134</v>
       </c>
       <c r="Q20">
-        <v>1153.900150355185</v>
+        <v>1197.91494388465</v>
       </c>
       <c r="R20">
-        <v>1153.900150355185</v>
+        <v>10781.23449496185</v>
       </c>
       <c r="S20">
-        <v>0.06513936464448997</v>
+        <v>0.05999374357503601</v>
       </c>
       <c r="T20">
-        <v>0.06513936464448997</v>
+        <v>0.06816519350679545</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>53.4386813171319</v>
+        <v>55.43169</v>
       </c>
       <c r="H21">
-        <v>53.4386813171319</v>
+        <v>166.29507</v>
       </c>
       <c r="I21">
-        <v>0.2546072062221191</v>
+        <v>0.244452513462199</v>
       </c>
       <c r="J21">
-        <v>0.2546072062221191</v>
+        <v>0.2617603737637175</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.810737738547</v>
+        <v>15.2060085</v>
       </c>
       <c r="N21">
-        <v>14.810737738547</v>
+        <v>30.412017</v>
       </c>
       <c r="O21">
-        <v>0.175483796380054</v>
+        <v>0.1726866725164001</v>
       </c>
       <c r="P21">
-        <v>0.175483796380054</v>
+        <v>0.1221560205851658</v>
       </c>
       <c r="Q21">
-        <v>791.466294081832</v>
+        <v>842.8947493093649</v>
       </c>
       <c r="R21">
-        <v>791.466294081832</v>
+        <v>5057.368495856189</v>
       </c>
       <c r="S21">
-        <v>0.04467943913357676</v>
+        <v>0.04221369113805766</v>
       </c>
       <c r="T21">
-        <v>0.04467943913357676</v>
+        <v>0.03197560560586137</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>39.9567004890751</v>
+        <v>44.980507</v>
       </c>
       <c r="H22">
-        <v>39.9567004890751</v>
+        <v>89.96101400000001</v>
       </c>
       <c r="I22">
-        <v>0.1903726594787051</v>
+        <v>0.1983630301178629</v>
       </c>
       <c r="J22">
-        <v>0.1903726594787051</v>
+        <v>0.1416050917733342</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.8566107259948</v>
+        <v>15.916237</v>
       </c>
       <c r="N22">
-        <v>14.8566107259948</v>
+        <v>47.748711</v>
       </c>
       <c r="O22">
-        <v>0.1760273186630584</v>
+        <v>0.1807523655213274</v>
       </c>
       <c r="P22">
-        <v>0.1760273186630584</v>
+        <v>0.1917923603630477</v>
       </c>
       <c r="Q22">
-        <v>593.6211450613548</v>
+        <v>715.920409792159</v>
       </c>
       <c r="R22">
-        <v>593.6211450613548</v>
+        <v>4295.522458752955</v>
       </c>
       <c r="S22">
-        <v>0.03351078879479193</v>
+        <v>0.03585458692578203</v>
       </c>
       <c r="T22">
-        <v>0.03351078879479193</v>
+        <v>0.02715877479063375</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>39.9567004890751</v>
+        <v>44.980507</v>
       </c>
       <c r="H23">
-        <v>39.9567004890751</v>
+        <v>89.96101400000001</v>
       </c>
       <c r="I23">
-        <v>0.1903726594787051</v>
+        <v>0.1983630301178629</v>
       </c>
       <c r="J23">
-        <v>0.1903726594787051</v>
+        <v>0.1416050917733342</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>17.1857309314296</v>
+        <v>18.30356</v>
       </c>
       <c r="N23">
-        <v>17.1857309314296</v>
+        <v>54.91068</v>
       </c>
       <c r="O23">
-        <v>0.2036237060335155</v>
+        <v>0.2078639421781384</v>
       </c>
       <c r="P23">
-        <v>0.2036237060335155</v>
+        <v>0.2205598581779516</v>
       </c>
       <c r="Q23">
-        <v>686.6851035129661</v>
+        <v>823.3034087049201</v>
       </c>
       <c r="R23">
-        <v>686.6851035129661</v>
+        <v>4939.82045222952</v>
       </c>
       <c r="S23">
-        <v>0.03876438645051038</v>
+        <v>0.04123252142269979</v>
       </c>
       <c r="T23">
-        <v>0.03876438645051038</v>
+        <v>0.0312323989588024</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>39.9567004890751</v>
+        <v>44.980507</v>
       </c>
       <c r="H24">
-        <v>39.9567004890751</v>
+        <v>89.96101400000001</v>
       </c>
       <c r="I24">
-        <v>0.1903726594787051</v>
+        <v>0.1983630301178629</v>
       </c>
       <c r="J24">
-        <v>0.1903726594787051</v>
+        <v>0.1416050917733342</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>15.9534053297063</v>
+        <v>17.01902666666667</v>
       </c>
       <c r="N24">
-        <v>15.9534053297063</v>
+        <v>51.05708</v>
       </c>
       <c r="O24">
-        <v>0.1890225984597914</v>
+        <v>0.193276170043871</v>
       </c>
       <c r="P24">
-        <v>0.1890225984597914</v>
+        <v>0.2050810939471215</v>
       </c>
       <c r="Q24">
-        <v>637.445438539889</v>
+        <v>765.5244481131866</v>
       </c>
       <c r="R24">
-        <v>637.445438539889</v>
+        <v>4593.14668867912</v>
       </c>
       <c r="S24">
-        <v>0.03598473477036587</v>
+        <v>0.03833884673947757</v>
       </c>
       <c r="T24">
-        <v>0.03598473477036587</v>
+        <v>0.02904052712935791</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>39.9567004890751</v>
+        <v>44.980507</v>
       </c>
       <c r="H25">
-        <v>39.9567004890751</v>
+        <v>89.96101400000001</v>
       </c>
       <c r="I25">
-        <v>0.1903726594787051</v>
+        <v>0.1983630301178629</v>
       </c>
       <c r="J25">
-        <v>0.1903726594787051</v>
+        <v>0.1416050917733342</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.5929757605238</v>
+        <v>21.61065166666667</v>
       </c>
       <c r="N25">
-        <v>21.5929757605238</v>
+        <v>64.83195500000001</v>
       </c>
       <c r="O25">
-        <v>0.2558425804635806</v>
+        <v>0.2454208497402632</v>
       </c>
       <c r="P25">
-        <v>0.2558425804635806</v>
+        <v>0.2604106669267134</v>
       </c>
       <c r="Q25">
-        <v>862.784065131108</v>
+        <v>972.0580685670618</v>
       </c>
       <c r="R25">
-        <v>862.784065131108</v>
+        <v>5832.348411402371</v>
       </c>
       <c r="S25">
-        <v>0.04870543245074643</v>
+        <v>0.04868242340857933</v>
       </c>
       <c r="T25">
-        <v>0.04870543245074643</v>
+        <v>0.03687547638891241</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>39.9567004890751</v>
+        <v>44.980507</v>
       </c>
       <c r="H26">
-        <v>39.9567004890751</v>
+        <v>89.96101400000001</v>
       </c>
       <c r="I26">
-        <v>0.1903726594787051</v>
+        <v>0.1983630301178629</v>
       </c>
       <c r="J26">
-        <v>0.1903726594787051</v>
+        <v>0.1416050917733342</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.810737738547</v>
+        <v>15.2060085</v>
       </c>
       <c r="N26">
-        <v>14.810737738547</v>
+        <v>30.412017</v>
       </c>
       <c r="O26">
-        <v>0.175483796380054</v>
+        <v>0.1726866725164001</v>
       </c>
       <c r="P26">
-        <v>0.175483796380054</v>
+        <v>0.1221560205851658</v>
       </c>
       <c r="Q26">
-        <v>591.7882118413638</v>
+        <v>683.9739717763096</v>
       </c>
       <c r="R26">
-        <v>591.7882118413638</v>
+        <v>2735.895887105238</v>
       </c>
       <c r="S26">
-        <v>0.03340731701229044</v>
+        <v>0.03425465162132421</v>
       </c>
       <c r="T26">
-        <v>0.03340731701229044</v>
+        <v>0.0172979145056277</v>
       </c>
     </row>
   </sheetData>
